--- a/medicine/Sexualité et sexologie/Histoire_de_la_nudité/Histoire_de_la_nudité.xlsx
+++ b/medicine/Sexualité et sexologie/Histoire_de_la_nudité/Histoire_de_la_nudité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Histoire_de_la_nudit%C3%A9</t>
+          <t>Histoire_de_la_nudité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire de la nudité répertorie les comportements humains par rapport à la nudité dans les différentes cultures à travers l'Histoire.
 La nudité fait partie intégrante de la vie quotidienne de nombreuses civilisations anciennes (Égypte Antique, Grèce Antique) ou contemporaines (les tribus d’Amérique du Sud et certains peuples Africains). Elle a été acceptée et tolérée dans la plupart des cultures pour la toilette, la baignade, les loisirs (notamment les activités sportives) et les pratiques religieuses (voir Skyclad).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Histoire_de_la_nudit%C3%A9</t>
+          <t>Histoire_de_la_nudité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Période paléolithique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les peaux d'animaux et les végétaux se décomposant facilement, il n'y a pas de preuves archéologiques du moment et de la manière dont les vêtements se sont développés. De récentes études sur les poux suggèrent que les vêtements sont devenus courants dans la société humaine il y a 72 000 ans[1], ce qui pourrait signifier que pendant près de 128 000 ans d'existence, l'Homo Sapiens n'a utilisé aucun vêtement. Ce point fait encore débat parmi les scientifiques : certains anthropologues pensent que l'Homo habilis et même l'Homo erectus ont pu utiliser des vêtements, il y a un million d'années ou davantage.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les peaux d'animaux et les végétaux se décomposant facilement, il n'y a pas de preuves archéologiques du moment et de la manière dont les vêtements se sont développés. De récentes études sur les poux suggèrent que les vêtements sont devenus courants dans la société humaine il y a 72 000 ans, ce qui pourrait signifier que pendant près de 128 000 ans d'existence, l'Homo Sapiens n'a utilisé aucun vêtement. Ce point fait encore débat parmi les scientifiques : certains anthropologues pensent que l'Homo habilis et même l'Homo erectus ont pu utiliser des vêtements, il y a un million d'années ou davantage.
 Les anthropologues pensent que les peaux d'animaux et la végétation ont été utilisés comme protection contre le froid, la chaleur et la pluie, surtout lorsque les humains ont colonisé de nouvelles régions du monde. Ils ont également pu être conçus pour servir aux rituels religieux ou magiques, pour marquer les différences de rang social et de valeurs, ou simplement servir à des fins esthétiques.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Histoire_de_la_nudit%C3%A9</t>
+          <t>Histoire_de_la_nudité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Dans l'Égypte antique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l’Égypte Antique, la nudité était la norme pour les hommes et les femmes des classes modestes (domestiques et esclaves), les travailleurs ayant besoin de liberté de mouvement (par exemple les agriculteurs) et pour les artistes pendant les festivités (musiciens, danseurs, acrobates). Les enfants restaient nus jusqu'à la puberté, quel que soit leur milieu social.
 Les personnes des classes moyennes et supérieures portaient des vêtements (pagnes, tuniques et robes) en lin, le seul textile utilisé dans l’Égypte Antique. Ces vêtements étaient de plus en plus fins selon l'élévation sociale de la personne, les vêtements des nobles pouvant être totalement transparents (y compris ceux du Pharaon, de son épouse et leur entourage). Le kalasiris, une robe extrêmement fine portée par les femmes, en est un exemple.
 Des inscriptions sur des tablettes d'argile retrouvées à Amarna attestent que le pharaon Akhenaton, son épouse Néfertiti et leurs enfants restaient couramment nus à l'intérieur du palais royal et dans les jardins : ils attribuaient à la nudité une valeur spirituelle importante et des bienfaits pour leur santé. Les personnages officiels, l'entourage de la famille royale ainsi que leurs serviteurs, pouvaient faire de même. Cette coutume a été successivement supprimée et réhabilitée par les différentes familles royales.
-D'autres cultures antiques considéraient les coutumes égyptiennes comme humiliantes, comme l'attestent des bas-reliefs ou des textes de l'époque, par exemple ce passage] de la Bible hébraïque : « Ainsi le Roi d'Assyrie emmènera d’Égypte et de Chus prisonniers et captifs les jeunes et les vieux, les nus et les déchaussés, fesses découvertes, ce qui sera l'opprobre de Égypte »[2].
+D'autres cultures antiques considéraient les coutumes égyptiennes comme humiliantes, comme l'attestent des bas-reliefs ou des textes de l'époque, par exemple ce passage] de la Bible hébraïque : « Ainsi le Roi d'Assyrie emmènera d’Égypte et de Chus prisonniers et captifs les jeunes et les vieux, les nus et les déchaussés, fesses découvertes, ce qui sera l'opprobre de Égypte ».
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Histoire_de_la_nudit%C3%A9</t>
+          <t>Histoire_de_la_nudité</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,16 +595,18 @@
           <t>Grèce antique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès l'époque Archaïque, la Grèce antique a eu une fascination particulière pour la beauté et l'esthétique, que ce soit pour les tenues vestimentaires ou pour la nudité. Ce respect pour le corps humain faisait partie d'un ensemble de valeurs plus vaste (intérêt pour la philosophie et les arts, respect de la nature). Les Grecs considéraient la nudité comme valorisante et étaient conscients de ce trait culturel spécifique, notant que « généralement dans les pays qui sont soumis aux barbares, la nudité est déshonorante ». Ils ont alors considéré l’interdiction de la nudité comme une répression, l’expression de la tyrannie.
 Dans la Grèce antique, la nudité des hommes et des garçons – et des femmes et des filles, dans une moindre mesure – faisait partie intégrante des pratiques religieuses et sportives, primordiales dans la vie quotidienne des Grecs.
 Sparte est probablement la première Cité-État de la Grèce antique où la nudité s'est généralisée pour la majorité des exercices physiques (réservés aux hommes et auxquels aucun spectateur ne pouvait assister). Les femmes Spartiates étaient parmi les rares femmes Grecques à pouvoir assister librement à ces exercices.
-La nudité dans les cérémonies religieuses était également courante en Grèce Antique. Les femmes Spartiates étaient nues pendant certaines processions (pratique censée valoriser leur beauté et leur santé[3], et encourager les hommes partis à la guerre). Les vêtements cérémoniels exposaient parfois le corps de leurs porteurs. La statue de la Moscophoros (le porteur de veau), un vestige archaïque de l'Acropole d'Athènes, représente un jeune homme portant un veau sur ses épaules, probablement vers un autel sacrificiel. Un morceau de tissu est posé sur ses épaules, couvrant le haut des bras et l'avant des cuisses, qui néanmoins expose ses organes génitaux.
+La nudité dans les cérémonies religieuses était également courante en Grèce Antique. Les femmes Spartiates étaient nues pendant certaines processions (pratique censée valoriser leur beauté et leur santé, et encourager les hommes partis à la guerre). Les vêtements cérémoniels exposaient parfois le corps de leurs porteurs. La statue de la Moscophoros (le porteur de veau), un vestige archaïque de l'Acropole d'Athènes, représente un jeune homme portant un veau sur ses épaules, probablement vers un autel sacrificiel. Un morceau de tissu est posé sur ses épaules, couvrant le haut des bras et l'avant des cuisses, qui néanmoins expose ses organes génitaux.
 En ce qui concerne l'art, de très nombreuses représentations d’athlètes nus ont été retrouvées : sculptures, mosaïques, peintures et décorations sur les vases. Les femmes et les déesses étaient représentées habillées pendant la période Classique, à l'exception d'Aphrodite. Les Grecs accordaient une grande importance aux figures mythologiques d'Apollon et d'Héraclès, souvent représentés comme des athlètes. La sculpture grecque montrait les hommes complètement nus, tandis que le concept de Venus Pudica (partiellement nue) est apparu ensuite (voir Victoire de Samothrace). Les représentations érotiques étaient courantes et considérées comme normales.
 Certains écrivains et historiens modernes ont émis l’hypothèse que la nudité, omniprésente dans l’art de la Grèce Antique, était seulement une convention artistique, et qu’il était impossible que la nudité soit aussi bien acceptée par une civilisation. Ce point de vue est attribué à la pudibonderie de l’époque Victorienne, appliqué de façon anachronique à l’Antiquité.
 La honte de la nudité semble avoir été un peu plus importante dans le reste du monde antique, à l'exception de l'Amérique du Sud, l'Afrique et l'Australie. Cependant les témoignages sont nombreux à propos de la nudité utilisée pour impressionner l'ennemi pendant le combat. Polybe écrit à propos des Celtes : « l'apparition de ces guerriers nus était un spectacle effrayant, car ils étaient tous des hommes au physique splendide, dans la fleur de l'âge ».
-La nudité partielle ou totale pour les activités sportives s'est étendue à l'ensemble de la Grèce, jusque dans ses plus lointaines colonies. Par exemple, les hommes et les femmes de la civilisation Minoenne, amateurs de la Voltige avec Taureau, pratiquaient ce sport vêtus uniquement d'un pagne[4]. Dans tous les cas, un kynodesme restait obligatoire pour éviter l’exposition du gland.
+La nudité partielle ou totale pour les activités sportives s'est étendue à l'ensemble de la Grèce, jusque dans ses plus lointaines colonies. Par exemple, les hommes et les femmes de la civilisation Minoenne, amateurs de la Voltige avec Taureau, pratiquaient ce sport vêtus uniquement d'un pagne. Dans tous les cas, un kynodesme restait obligatoire pour éviter l’exposition du gland.
 Lors des Jeux Olympiques et Panhelléniques, la nudité de tous les participants était obligatoire pour les disciplines de combat (boxe, lutte, pancrace - l'absence de protection facilitait les mouvements des adversaires), les courses à pied (stadion, course de relais), le pentathlon (composé d'épreuves de lutte, de stadion, de saut en longueur, de lancer du javelot et de lancer de disque). Des représentations de courses de chars où les concurrents sont nus ont également été retrouvées par les archéologues.
 Plusieurs mythes expliquent cette tradition de la nudité dans les sports en Grèce Antique. L’un de ces mythes est la performance athlétique d’Orhippos de Mégare, qui perdit son pagne en tissu pendant le stadion des 15èmes Jeux Olympiques, en 720 avant Jésus-Christ, ce qui lui donna plus de vitesse que ses concurrents et lui permit de remporter la course. Une variante plus tragique de ce mythe affirme qu'un athlète perdit son pagne, glissa dessus et se tua, justifiant l'interdiction de tout vêtement.
 Il existe d’autres explications plus spirituelles : par exemple, la nudité de l’athlète pouvait être le moyen de rendre hommage aux Dieux et au corps humain qu’ils avaient conçu (presque tous les Jeux Olympiques ont eu lieu en même temps que des fêtes religieuses). Un athlète vainqueur pouvait servir de modèle pour les sculptures des Dieux, exposées ensuite dans des temples : c’était un immense privilège qui leur permettait d’accéder à une forme d’immortalité.
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Histoire_de_la_nudit%C3%A9</t>
+          <t>Histoire_de_la_nudité</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +639,9 @@
           <t>Rome antique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L’attitude des Romains par rapport à la nudité a différé de celle des Grecs. Les Romains voyaient le port de vêtements comme marqueur d’un bon statut social et considéraient la nudité dans un cadre public comme une caractéristique de l'esclavage ou de la pauvreté. La désapprobation de la nudité en public à Rome avait pour origine la pression sociale, mais pas une lutte contre les désirs sexuels inappropriés ou une gêne face à l’exposition du corps.
 Le poète Ennius (239-169 avant Jésus-Christ), a écrit « exposer des corps nus parmi les citoyens est le début de la disgrâce publique (flagitium) ». Le consul Cicéron se moqua de l’empereur Marc Antoine apparaissant quasiment nu lors de sa participation aux fêtes Lupercales, bien que l’absence de vêtements ait été nécessaire aux rituels.
@@ -645,7 +665,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Histoire_de_la_nudit%C3%A9</t>
+          <t>Histoire_de_la_nudité</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -663,7 +683,9 @@
           <t>Japon</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les combats de sumo, pratiqués par des hommes portant un pagne cérémonial qui expose les fesses, étaient considérés comme sacrés dans la religion Shintō. La toilette collective et mixte fait partie de la tradition japonaise. La pratique des seins nus en public était considérée comme acceptable jusqu'à l'occupation américaine après la Seconde Guerre mondiale : le général Douglas MacArthur a adopté des édits exigeant des femmes qu'elles se couvrent la poitrine en toutes circonstances. Il a également fait interdire la pornographie qui contenait des plans rapprochés des organes génitaux.
 La nudité en public était très courante au Japon jusqu'à la Restauration de Meiji. L'interprète du Commodore Matthew Perry, le révérend S. Well Williams, a écrit : « la pudeur, à en croire ce que nous voyons, semble ici inconnue : les femmes ne cherchent pas à cacher leurs seins ou leurs cuisses, tandis que les hommes utilisent parfois un unique morceau de tissu, mis en place avec négligence. On peut voir des hommes nus et des femmes nues parcourant les rues librement et fréquenter les mêmes établissements pour faire leur toilette, sans distinction de sexe, sans pudeur. Ces pratiques obscènes démontrent l'attrait de ce peuple pour le vice, à un degré qui répugnerait n'importe qui ».
@@ -681,7 +703,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Histoire_de_la_nudit%C3%A9</t>
+          <t>Histoire_de_la_nudité</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -699,13 +721,15 @@
           <t>Cultures traditionnelles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour certaines cultures de chasseurs-cueilleurs présentes dans les climats chauds, la nudité totale ou partielle a été la norme pour les hommes et les femmes de tous âges, jusqu'à l'introduction de la culture Occidentale ou des religions comme l'Islam.
 La nudité totale ou partielle pour les hommes et les femmes est toujours très commune pour les peuples Africains Mursis, Surmas, Noubas, Karamojong, Kirdis, Dinka et Maasaï, et pour les peuples Sud-Américains Matsés, Yanomami, Suruwaha, Xingu, Matis et Galdu. De nombreux peuples indigènes Africains et Sud-Américains font de l'exercice physique ou des compétitions sportives nus. Le peuple Nuba, au sud du Soudan, et le peuple Xingu dans la région Amazonienne, font des combats sans vêtements. Les Dinka, Surma et Mursi présents au Soudan et en Éthiopie restent nus pour des combats au bâton. Les moines indiens Digambara pratiquent le Yoga nus (ou en Skyclad comme ils l'appellent). L'influence croissante des cultures Occidentales et Musulmanes  pourrait menacer la pratique de la nudité de ces peuples, qui fait pourtant partie de leur culture.
 Dans certaines cultures d'Afrique et de Mélanésie, une simple cordelette autour de la taille peut suffire aux activités de chasse et aux autres activités de groupe. Les étuis péniens sont aussi utilisés par certaines tribus de Nouvelle Guinée, l'absence de celui-ci étant considéré comme très embarrassant. Les hommes de la tribu amérindienne Chumash étaient nus la plupart du temps, tandis que les femmes étaient seins nus. La plupart des tribus du Bassin Amazonien n'utilisent aucun vêtement, ou bien une simple ficelle pour maintenir le prépuce fermé. Les adultes d'autres tribus, surtout en Amérique du Nord et dans les régions montagneuses d'Amérique du Sud (comme les Quechuas) considéraient la nudité des adultes comme tabou. Cependant les jeunes pouvaient rester nus dès que la météo le permettait, l'obligation du port de vêtements ne commençant qu'à la puberté (autour de l'âge de 10 ans, la princesse Pocahontas a scandalisé les colons Occidentaux de la ville de Jamestown, en s'y présentant entièrement nue).
 Ibn Battûta (1304-1369) effectue cette description à propos du peuple du Mali :
-« Among their bad qualities are the following. The women servants, slave-girls, and young girls go about in front of everyone naked, without a stitch of clothing on them. Women go into the sultan's presence naked and without coverings, and his daughters also go about naked.[5] »
+« Among their bad qualities are the following. The women servants, slave-girls, and young girls go about in front of everyone naked, without a stitch of clothing on them. Women go into the sultan's presence naked and without coverings, and his daughters also go about naked. »
 </t>
         </is>
       </c>
@@ -716,7 +740,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Histoire_de_la_nudit%C3%A9</t>
+          <t>Histoire_de_la_nudité</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -734,7 +758,9 @@
           <t>Histoire récente</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En Europe jusqu'au XVIIIe siècle, la nudité était courante parmi toutes les classes sociales. Les gens ne se séparaient pas selon leurs sexes pour la toilette (ou les baignades dans les rivières pour les classes plus modestes). Les prostituées portaient couramment des tenues conçues pour exposer leurs seins.
 Pendant le siècle des Lumières, une association entre nudité et sexualité engendra un tabou, qui atteindra son paroxysme à l'époque Victorienne où la nudité était qualifiée d'obscène une transgression des mœurs et une incitation à la sexualité. Se baigner nu était devenu un délit, les femmes et les hommes (même avec de grands maillots de bain) devaient se séparer sur les plages, et des roulottes de bain furent utilisées pour permettre aux personnes d'entrer directement dans l'eau sans être vues.
@@ -761,7 +787,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Histoire_de_la_nudit%C3%A9</t>
+          <t>Histoire_de_la_nudité</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -779,7 +805,9 @@
           <t>Nudité des enfants</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La quasi-totalité des cultures à travers l'Histoire n'a pas eu de tabou sur la nudité des enfants, mais elle était moins acceptée lorsque la puberté était atteinte. C'est toujours le cas aujourd'hui dans la majorité des pays occidentaux.
 La nudité des bébés et des enfants a quasiment disparu des médias et de la publicité, même si elle était courante avant les années 1970. Un exemple notable est le logo de la société Coppertone (fabricante de crèmes solaires) représentant une petite fille ayant son maillot de bain tiré vers le bas par un chien, révélant la différence de couleur entre la peau bronzée et la peau non-bronzée. Ce logo a évolué au cours de la décennie 1990–2000 pour révéler moins de peau du personnage.
